--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cd34-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cd34-Sele.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.3055973333333</v>
+        <v>66.36304333333334</v>
       </c>
       <c r="H2">
-        <v>318.916792</v>
+        <v>199.08913</v>
       </c>
       <c r="I2">
-        <v>0.2547398208373941</v>
+        <v>0.1775372952319303</v>
       </c>
       <c r="J2">
-        <v>0.2547398208373941</v>
+        <v>0.1775372952319303</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="N2">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>778.362071412455</v>
+        <v>34.99431667937444</v>
       </c>
       <c r="R2">
-        <v>7005.258642712094</v>
+        <v>314.94885011437</v>
       </c>
       <c r="S2">
-        <v>0.2547398208373941</v>
+        <v>0.1775372952319303</v>
       </c>
       <c r="T2">
-        <v>0.2547398208373941</v>
+        <v>0.1775372952319303</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>296.1091513333334</v>
+        <v>296.1091513333333</v>
       </c>
       <c r="H3">
-        <v>888.3274540000001</v>
+        <v>888.327454</v>
       </c>
       <c r="I3">
-        <v>0.7095655736964096</v>
+        <v>0.7921640597024409</v>
       </c>
       <c r="J3">
-        <v>0.7095655736964095</v>
+        <v>0.7921640597024407</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="N3">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>2168.090281015973</v>
+        <v>156.1431919475384</v>
       </c>
       <c r="R3">
-        <v>19512.81252914375</v>
+        <v>1405.288727527846</v>
       </c>
       <c r="S3">
-        <v>0.7095655736964096</v>
+        <v>0.7921640597024409</v>
       </c>
       <c r="T3">
-        <v>0.7095655736964095</v>
+        <v>0.7921640597024407</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.895733</v>
+        <v>11.32556566666667</v>
       </c>
       <c r="H4">
-        <v>44.687199</v>
+        <v>33.976697</v>
       </c>
       <c r="I4">
-        <v>0.03569460546619627</v>
+        <v>0.03029864506562886</v>
       </c>
       <c r="J4">
-        <v>0.03569460546619627</v>
+        <v>0.03029864506562885</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="N4">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>109.0655043942013</v>
+        <v>5.972155760272556</v>
       </c>
       <c r="R4">
-        <v>981.5895395478118</v>
+        <v>53.749401842453</v>
       </c>
       <c r="S4">
-        <v>0.03569460546619627</v>
+        <v>0.03029864506562886</v>
       </c>
       <c r="T4">
-        <v>0.03569460546619627</v>
+        <v>0.03029864506562885</v>
       </c>
     </row>
   </sheetData>
